--- a/Uncertainties_Dynamic_Planning/plot_distribution_exponential_scale10/R30/Intermodal_EGS_data_dynamic_exponential_scale10_table33.xlsx
+++ b/Uncertainties_Dynamic_Planning/plot_distribution_exponential_scale10/R30/Intermodal_EGS_data_dynamic_exponential_scale10_table33.xlsx
@@ -6452,7 +6452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6515,15 +6515,15 @@
         <v>-1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[179, 184]</t>
+          <t>[14, 16]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6544,14 +6544,188 @@
         <v>-1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[179, 184]</t>
+          <t>[14, 16]</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>congestion</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[20, 23]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>congestion_finish</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[20, 23]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>congestion</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[121, 125]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>congestion_finish</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[121, 125]</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>congestion</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[149, 152]</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>congestion_finish</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>node</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[149, 152]</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>1</v>
       </c>
     </row>
